--- a/sessions.xlsx
+++ b/sessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,126 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zol 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>26451878</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ce2f9bb8cbdc58b53a6f1c9bdda5aeed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>212617444171</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>sessions\212617444171.session</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zol 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22438597</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49b31e0a4fbb86d5a94d3dee9eb43bad</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>212617457588</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sessions\212617457588.session</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zol 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28586288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ead9a8ef7677c45acd038c074ff759cf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>212691427146</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sessions\212691427146.session</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zol 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25276276</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>922f857e959e0ad1f097d8c9aa034e1d</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>212691403503</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sessions\212691403503.session</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sessions.xlsx
+++ b/sessions.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zol</t>
+          <t>zol 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22438597</t>
+          <t>27137544</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49b31e0a4fbb86d5a94d3dee9eb43bad</t>
+          <t>bc009ca04979c6b28d4900ef6ccfba1b</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,22 +566,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28586288</t>
+          <t>22438597</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ead9a8ef7677c45acd038c074ff759cf</t>
+          <t>49b31e0a4fbb86d5a94d3dee9eb43bad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>212691427146</t>
+          <t>212621220283</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>sessions\212691427146.session</t>
+          <t>sessions\212621220283.session</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25276276</t>
+          <t>28586288</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>922f857e959e0ad1f097d8c9aa034e1d</t>
+          <t>ead9a8ef7677c45acd038c074ff759cf</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>212691403503</t>
+          <t>212691427146</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>sessions\212691403503.session</t>
+          <t>sessions\212691427146.session</t>
         </is>
       </c>
     </row>
